--- a/statistics/R/roiHumanBody_Within-PLI_gamma_B/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_B/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.004207332332332309</v>
+        <v>-0.0021036661661661543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.016345999679333006</v>
+        <v>0.008172999839666503</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0024472154453178963</v>
+        <v>-0.0012236077226589481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.028495842781557118</v>
+        <v>0.014247921390778559</v>
       </c>
       <c r="G2" t="n">
-        <v>0.027652588813303097</v>
+        <v>0.013826294406651549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01240847216079416</v>
+        <v>0.00620423608039708</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.022162568731196153</v>
+        <v>-0.011081284365598076</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.006478146814281244</v>
+        <v>-0.003239073407140622</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.026395002445422616</v>
+        <v>-0.013197501222711308</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004046062869592304</v>
+        <v>-0.002023031434796152</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.024354186118892063</v>
+        <v>-0.012177093059446031</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.018090862075824526</v>
+        <v>-0.009045431037912263</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.030509501097736397</v>
+        <v>-0.015254750548868198</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02796475315272312</v>
+        <v>-0.01398237657636156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02195303072496055</v>
+        <v>0.010976515362480274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.015075973409306734</v>
+        <v>0.007537986704653367</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.042560103963612775</v>
+        <v>-0.021280051981806387</v>
       </c>
       <c r="H4" t="n">
-        <v>0.011168677835344504</v>
+        <v>0.005584338917672252</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.034442605871177284</v>
+        <v>0.017221302935588642</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.878894767783888E-4</v>
+        <v>-2.939447383891944E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01401379265156355</v>
+        <v>-0.007006896325781775</v>
       </c>
       <c r="F5" t="n">
-        <v>0.021224146224146256</v>
+        <v>0.010612073112073128</v>
       </c>
       <c r="G5" t="n">
-        <v>0.025963857765328363</v>
+        <v>0.012981928882664182</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02401465636759756</v>
+        <v>0.01200732818379878</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.295009295009482E-4</v>
+        <v>-4.647504647504741E-4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.033571333750545246</v>
+        <v>0.016785666875272623</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0017522160379302987</v>
+        <v>8.761080189651493E-4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002303143479614106</v>
+        <v>0.001151571739807053</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005764948622091426</v>
+        <v>-0.002882474311045713</v>
       </c>
       <c r="H6" t="n">
-        <v>3.733892622781454E-4</v>
+        <v>1.866946311390727E-4</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001664876476906496</v>
+        <v>8.32438238453248E-4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.029756010148167006</v>
+        <v>-0.014878005074083503</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.025675025675025664</v>
+        <v>-0.012837512837512832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01415343915343914</v>
+        <v>0.00707671957671957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004303665910808774</v>
+        <v>0.002151832955404387</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0046968169984042685</v>
+        <v>0.0023484084992021342</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006630580159991933</v>
+        <v>0.0033152900799959667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009394926061592729</v>
+        <v>0.004697463030796364</v>
       </c>
       <c r="E8" t="n">
-        <v>0.013796506256823632</v>
+        <v>0.006898253128411816</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.026743318409985034</v>
+        <v>-0.013371659204992517</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.013548242119670706</v>
+        <v>-0.006774121059835353</v>
       </c>
       <c r="H8" t="n">
-        <v>1.653439153438685E-4</v>
+        <v>8.267195767193425E-5</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.010892656725990019</v>
+        <v>0.005446328362995009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00473752224904303</v>
+        <v>0.002368761124521515</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009124862066038575</v>
+        <v>0.004562431033019287</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.013177122700932242</v>
+        <v>-0.006588561350466121</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.028487489271803</v>
+        <v>-0.0142437446359015</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0044478480150994815</v>
+        <v>0.0022239240075497407</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.011809168111689153</v>
+        <v>-0.005904584055844576</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00730994152046785</v>
+        <v>-0.003654970760233925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00920920920920923</v>
+        <v>0.004604604604604615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03745942821573073</v>
+        <v>0.018729714107865364</v>
       </c>
       <c r="G10" t="n">
-        <v>0.013277166054943834</v>
+        <v>0.006638583027471917</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0034369303276866603</v>
+        <v>-0.0017184651638433301</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003664699498032803</v>
+        <v>0.0018323497490164015</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00807574491785018</v>
+        <v>-0.00403787245892509</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.031317031317031285</v>
+        <v>-0.015658515658515643</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.005571643071643068</v>
+        <v>-0.002785821535821534</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01924603174603179</v>
+        <v>-0.009623015873015894</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02430696875141322</v>
+        <v>-0.01215348437570661</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02248320230776371</v>
+        <v>-0.011241601153881856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.026326337729846522</v>
+        <v>0.013163168864923261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00968723825866688</v>
+        <v>0.00484361912933344</v>
       </c>
       <c r="F12" t="n">
-        <v>0.013068385248836398</v>
+        <v>0.006534192624418199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.029471827717441723</v>
+        <v>0.014735913858720862</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0045448378781711984</v>
+        <v>0.0022724189390855992</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.230662125399576E-4</v>
+        <v>2.115331062699788E-4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0010832260832260854</v>
+        <v>-5.416130416130427E-4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003004037872458898</v>
+        <v>0.001502018936229449</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03710317460317461</v>
+        <v>-0.018551587301587305</v>
       </c>
       <c r="G13" t="n">
-        <v>0.017670601003934278</v>
+        <v>0.008835300501967139</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01489300173510702</v>
+        <v>0.00744650086755351</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.39061056521384E-4</v>
+        <v>-3.69530528260692E-4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.008156966490299844</v>
+        <v>-0.004078483245149922</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.025429511143796824</v>
+        <v>-0.012714755571898412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0027569586393116075</v>
+        <v>0.0013784793196558037</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.020091520091520126</v>
+        <v>-0.010045760045760063</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.014964459408903868</v>
+        <v>-0.007482229704451934</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.028359528359528346</v>
+        <v>0.014179764179764173</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03375597820042257</v>
+        <v>-0.016877989100211287</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.010056888252376939</v>
+        <v>-0.005028444126188469</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02683134262081628</v>
+        <v>-0.01341567131040814</v>
       </c>
       <c r="G15" t="n">
-        <v>0.015931962010393375</v>
+        <v>0.007965981005196687</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0015659825183634846</v>
+        <v>-7.829912591817423E-4</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02006768673435333</v>
+        <v>0.010033843367176665</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05892160957950432</v>
+        <v>0.02946080478975216</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.011064177730844338</v>
+        <v>-0.005532088865422169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.027777777777777762</v>
+        <v>0.013888888888888881</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.010352343685677029</v>
+        <v>-0.0051761718428385145</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01654303696787357</v>
+        <v>0.008271518483936785</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.024470899470899476</v>
+        <v>0.012235449735449738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.011610375144209734</v>
+        <v>0.005805187572104867</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0555555555555555</v>
+        <v>-0.02777777777777775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007602840936174277</v>
+        <v>0.0038014204680871383</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.008794508794508854</v>
+        <v>-0.004397254397254427</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.013422152311041186</v>
+        <v>-0.006711076155520593</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01833286921006222</v>
+        <v>-0.00916643460503111</v>
       </c>
       <c r="D18" t="n">
-        <v>0.012869475275490316</v>
+        <v>0.006434737637745158</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0446017913338175</v>
+        <v>0.02230089566690875</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.030732413085354224</v>
+        <v>-0.015366206542677112</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0040354413370286</v>
+        <v>-0.0020177206685143</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.04141051482321327</v>
+        <v>-0.020705257411606635</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.023990089863105732</v>
+        <v>0.011995044931552866</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.015969708221170165</v>
+        <v>-0.007984854110585082</v>
       </c>
       <c r="E19" t="n">
-        <v>0.031517628739850964</v>
+        <v>0.015758814369925482</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00798565040051108</v>
+        <v>-0.00399282520025554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.021104468723516345</v>
+        <v>0.010552234361758173</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.017665130568356363</v>
+        <v>-0.008832565284178182</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01039595325309614</v>
+        <v>0.00519797662654807</v>
       </c>
       <c r="D20" t="n">
-        <v>0.021259981786297594</v>
+        <v>0.010629990893148797</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03430674264007595</v>
+        <v>0.017153371320037976</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0023203013399092087</v>
+        <v>0.0011601506699546044</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006037172703839397</v>
+        <v>0.0030185863519196984</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.012000355697834697</v>
+        <v>-0.0060001778489173485</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03335386668719997</v>
+        <v>-0.016676933343599987</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0031114110061478684</v>
+        <v>-0.0015557055030739342</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02484902484902482</v>
+        <v>0.01242451242451241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0017958000414141084</v>
+        <v>8.979000207070542E-4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004713171818434947</v>
+        <v>0.0023565859092174735</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.010253843587176903</v>
+        <v>-0.0051269217935884515</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.014348381995440807</v>
+        <v>0.007174190997720403</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003848838918283373</v>
+        <v>-0.0019244194591416866</v>
       </c>
       <c r="E22" t="n">
-        <v>0.013370310245310227</v>
+        <v>0.006685155122655113</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007563844251150739</v>
+        <v>-0.0037819221255753696</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005291005291005291</v>
+        <v>0.0026455026455026454</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.038518677407566274</v>
+        <v>-0.019259338703783137</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.008158952603396996</v>
+        <v>-0.004079476301698498</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.008741394455680174</v>
+        <v>-0.004370697227840087</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.014173948384474666</v>
+        <v>-0.007086974192237333</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01400851400851405</v>
+        <v>0.007004257004257025</v>
       </c>
       <c r="G23" t="n">
-        <v>0.013502224028539789</v>
+        <v>0.006751112014269894</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.00920090258325551</v>
+        <v>-0.004600451291627755</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005362505362505349</v>
+        <v>0.0026812526812526744</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003933444722918414</v>
+        <v>-0.001966722361459207</v>
       </c>
       <c r="E24" t="n">
-        <v>0.012956179622846287</v>
+        <v>0.006478089811423143</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.010303536619326037</v>
+        <v>-0.0051517683096630185</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0169815564552407</v>
+        <v>-0.00849077822762035</v>
       </c>
       <c r="H24" t="n">
-        <v>0.022426079443623306</v>
+        <v>0.011213039721811653</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0014571221467773454</v>
+        <v>-7.285610733886727E-4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.011368511368511358</v>
+        <v>0.005684255684255679</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005659338992672347</v>
+        <v>0.0028296694963361735</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0026455026455026315</v>
+        <v>-0.0013227513227513157</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03418768180672942</v>
+        <v>-0.01709384090336471</v>
       </c>
       <c r="H25" t="n">
-        <v>0.009815619190619213</v>
+        <v>0.004907809595309606</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.014132553606237774</v>
+        <v>-0.007066276803118887</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02393209536066679</v>
+        <v>0.011966047680333394</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003640513444435056</v>
+        <v>0.001820256722217528</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004209183673469369</v>
+        <v>0.0021045918367346844</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.006048478270700486</v>
+        <v>-0.003024239135350243</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.00466853408029877</v>
+        <v>-0.002334267040149385</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.02134610029346873</v>
+        <v>-0.010673050146734364</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.006172839506172839</v>
+        <v>-0.0030864197530864196</v>
       </c>
       <c r="E27" t="n">
-        <v>0.009376723662437955</v>
+        <v>0.004688361831218978</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.008222508222508224</v>
+        <v>-0.004111254111254112</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0159408492741826</v>
+        <v>-0.0079704246370913</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.020878020878020917</v>
+        <v>-0.010439010439010458</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.018587805492567375</v>
+        <v>-0.009293902746283687</v>
       </c>
       <c r="D28" t="n">
-        <v>0.009188912414718864</v>
+        <v>0.004594456207359432</v>
       </c>
       <c r="E28" t="n">
-        <v>0.014736959181403594</v>
+        <v>0.007368479590701797</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.005035903250188961</v>
+        <v>-0.0025179516250944806</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004145027186501879</v>
+        <v>0.0020725135932509395</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.011982570806100212</v>
+        <v>-0.005991285403050106</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.004525201893622918</v>
+        <v>-0.002262600946811459</v>
       </c>
       <c r="D29" t="n">
-        <v>0.015983015983015977</v>
+        <v>0.007991507991507989</v>
       </c>
       <c r="E29" t="n">
-        <v>0.014192764192764176</v>
+        <v>0.007096382096382088</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.02796206201778957</v>
+        <v>-0.013981031008894786</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.008845580274151693</v>
+        <v>-0.0044227901370758466</v>
       </c>
       <c r="H29" t="n">
-        <v>0.009938509938509948</v>
+        <v>0.004969254969254974</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.015104390104390159</v>
+        <v>0.007552195052195079</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006545831545831521</v>
+        <v>0.0032729157729157604</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0012393345726679078</v>
+        <v>-6.196672863339539E-4</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0068818818818818794</v>
+        <v>-0.0034409409409409397</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.029960317460317465</v>
+        <v>-0.014980158730158732</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0033097006781216964</v>
+        <v>-0.0016548503390608482</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>-0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.001</v>
+        <v>-0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>15.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05892160957950432</v>
+        <v>0.02946080478975216</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>16.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0555555555555555</v>
+        <v>-0.02777777777777775</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>

--- a/statistics/R/roiHumanBody_Within-PLI_gamma_B/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_B/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0021036661661661543</v>
+        <v>-0.004207332332332309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008172999839666503</v>
+        <v>0.016345999679333006</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0012236077226589481</v>
+        <v>-0.0024472154453178963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.014247921390778559</v>
+        <v>0.028495842781557118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.013826294406651549</v>
+        <v>0.027652588813303097</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00620423608039708</v>
+        <v>0.01240847216079416</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.011081284365598076</v>
+        <v>-0.022162568731196153</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003239073407140622</v>
+        <v>-0.006478146814281244</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.013197501222711308</v>
+        <v>-0.026395002445422616</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002023031434796152</v>
+        <v>-0.004046062869592304</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.012177093059446031</v>
+        <v>-0.024354186118892063</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.009045431037912263</v>
+        <v>-0.018090862075824526</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.015254750548868198</v>
+        <v>-0.030509501097736397</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01398237657636156</v>
+        <v>-0.02796475315272312</v>
       </c>
       <c r="E4" t="n">
-        <v>0.010976515362480274</v>
+        <v>0.02195303072496055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007537986704653367</v>
+        <v>0.015075973409306734</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.021280051981806387</v>
+        <v>-0.042560103963612775</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005584338917672252</v>
+        <v>0.011168677835344504</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.017221302935588642</v>
+        <v>0.034442605871177284</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.939447383891944E-4</v>
+        <v>-5.878894767783888E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.007006896325781775</v>
+        <v>-0.01401379265156355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.010612073112073128</v>
+        <v>0.021224146224146256</v>
       </c>
       <c r="G5" t="n">
-        <v>0.012981928882664182</v>
+        <v>0.025963857765328363</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01200732818379878</v>
+        <v>0.02401465636759756</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.647504647504741E-4</v>
+        <v>-9.295009295009482E-4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.016785666875272623</v>
+        <v>0.033571333750545246</v>
       </c>
       <c r="E6" t="n">
-        <v>8.761080189651493E-4</v>
+        <v>0.0017522160379302987</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001151571739807053</v>
+        <v>0.002303143479614106</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.002882474311045713</v>
+        <v>-0.005764948622091426</v>
       </c>
       <c r="H6" t="n">
-        <v>1.866946311390727E-4</v>
+        <v>3.733892622781454E-4</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.32438238453248E-4</v>
+        <v>0.001664876476906496</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.014878005074083503</v>
+        <v>-0.029756010148167006</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.012837512837512832</v>
+        <v>-0.025675025675025664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00707671957671957</v>
+        <v>0.01415343915343914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002151832955404387</v>
+        <v>0.004303665910808774</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0023484084992021342</v>
+        <v>0.0046968169984042685</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0033152900799959667</v>
+        <v>0.006630580159991933</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004697463030796364</v>
+        <v>0.009394926061592729</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006898253128411816</v>
+        <v>0.013796506256823632</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.013371659204992517</v>
+        <v>-0.026743318409985034</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006774121059835353</v>
+        <v>-0.013548242119670706</v>
       </c>
       <c r="H8" t="n">
-        <v>8.267195767193425E-5</v>
+        <v>1.653439153438685E-4</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005446328362995009</v>
+        <v>0.010892656725990019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002368761124521515</v>
+        <v>0.00473752224904303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004562431033019287</v>
+        <v>0.009124862066038575</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.006588561350466121</v>
+        <v>-0.013177122700932242</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0142437446359015</v>
+        <v>-0.028487489271803</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0022239240075497407</v>
+        <v>0.0044478480150994815</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.005904584055844576</v>
+        <v>-0.011809168111689153</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003654970760233925</v>
+        <v>-0.00730994152046785</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004604604604604615</v>
+        <v>0.00920920920920923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.018729714107865364</v>
+        <v>0.03745942821573073</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006638583027471917</v>
+        <v>0.013277166054943834</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0017184651638433301</v>
+        <v>-0.0034369303276866603</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0018323497490164015</v>
+        <v>0.003664699498032803</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00403787245892509</v>
+        <v>-0.00807574491785018</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.015658515658515643</v>
+        <v>-0.031317031317031285</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.002785821535821534</v>
+        <v>-0.005571643071643068</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.009623015873015894</v>
+        <v>-0.01924603174603179</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01215348437570661</v>
+        <v>-0.02430696875141322</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.011241601153881856</v>
+        <v>-0.02248320230776371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.013163168864923261</v>
+        <v>0.026326337729846522</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00484361912933344</v>
+        <v>0.00968723825866688</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006534192624418199</v>
+        <v>0.013068385248836398</v>
       </c>
       <c r="G12" t="n">
-        <v>0.014735913858720862</v>
+        <v>0.029471827717441723</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0022724189390855992</v>
+        <v>0.0045448378781711984</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.115331062699788E-4</v>
+        <v>4.230662125399576E-4</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.416130416130427E-4</v>
+        <v>-0.0010832260832260854</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001502018936229449</v>
+        <v>0.003004037872458898</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.018551587301587305</v>
+        <v>-0.03710317460317461</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008835300501967139</v>
+        <v>0.017670601003934278</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00744650086755351</v>
+        <v>0.01489300173510702</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.69530528260692E-4</v>
+        <v>-7.39061056521384E-4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004078483245149922</v>
+        <v>-0.008156966490299844</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.012714755571898412</v>
+        <v>-0.025429511143796824</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0013784793196558037</v>
+        <v>0.0027569586393116075</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.010045760045760063</v>
+        <v>-0.020091520091520126</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.007482229704451934</v>
+        <v>-0.014964459408903868</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.014179764179764173</v>
+        <v>0.028359528359528346</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.016877989100211287</v>
+        <v>-0.03375597820042257</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.005028444126188469</v>
+        <v>-0.010056888252376939</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01341567131040814</v>
+        <v>-0.02683134262081628</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007965981005196687</v>
+        <v>0.015931962010393375</v>
       </c>
       <c r="H15" t="n">
-        <v>-7.829912591817423E-4</v>
+        <v>-0.0015659825183634846</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.010033843367176665</v>
+        <v>0.02006768673435333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02946080478975216</v>
+        <v>0.05892160957950432</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.005532088865422169</v>
+        <v>-0.011064177730844338</v>
       </c>
       <c r="F16" t="n">
-        <v>0.013888888888888881</v>
+        <v>0.027777777777777762</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0051761718428385145</v>
+        <v>-0.010352343685677029</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008271518483936785</v>
+        <v>0.01654303696787357</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.012235449735449738</v>
+        <v>0.024470899470899476</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005805187572104867</v>
+        <v>0.011610375144209734</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02777777777777775</v>
+        <v>-0.0555555555555555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0038014204680871383</v>
+        <v>0.007602840936174277</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.004397254397254427</v>
+        <v>-0.008794508794508854</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.006711076155520593</v>
+        <v>-0.013422152311041186</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00916643460503111</v>
+        <v>-0.01833286921006222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006434737637745158</v>
+        <v>0.012869475275490316</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02230089566690875</v>
+        <v>0.0446017913338175</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.015366206542677112</v>
+        <v>-0.030732413085354224</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0020177206685143</v>
+        <v>-0.0040354413370286</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.020705257411606635</v>
+        <v>-0.04141051482321327</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.011995044931552866</v>
+        <v>0.023990089863105732</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.007984854110585082</v>
+        <v>-0.015969708221170165</v>
       </c>
       <c r="E19" t="n">
-        <v>0.015758814369925482</v>
+        <v>0.031517628739850964</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00399282520025554</v>
+        <v>-0.00798565040051108</v>
       </c>
       <c r="G19" t="n">
-        <v>0.010552234361758173</v>
+        <v>0.021104468723516345</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.008832565284178182</v>
+        <v>-0.017665130568356363</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00519797662654807</v>
+        <v>0.01039595325309614</v>
       </c>
       <c r="D20" t="n">
-        <v>0.010629990893148797</v>
+        <v>0.021259981786297594</v>
       </c>
       <c r="E20" t="n">
-        <v>0.017153371320037976</v>
+        <v>0.03430674264007595</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0011601506699546044</v>
+        <v>0.0023203013399092087</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0030185863519196984</v>
+        <v>0.006037172703839397</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0060001778489173485</v>
+        <v>-0.012000355697834697</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.016676933343599987</v>
+        <v>-0.03335386668719997</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0015557055030739342</v>
+        <v>-0.0031114110061478684</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01242451242451241</v>
+        <v>0.02484902484902482</v>
       </c>
       <c r="F21" t="n">
-        <v>8.979000207070542E-4</v>
+        <v>0.0017958000414141084</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0023565859092174735</v>
+        <v>0.004713171818434947</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0051269217935884515</v>
+        <v>-0.010253843587176903</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007174190997720403</v>
+        <v>0.014348381995440807</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0019244194591416866</v>
+        <v>-0.003848838918283373</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006685155122655113</v>
+        <v>0.013370310245310227</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0037819221255753696</v>
+        <v>-0.007563844251150739</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0026455026455026454</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.019259338703783137</v>
+        <v>-0.038518677407566274</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.004079476301698498</v>
+        <v>-0.008158952603396996</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004370697227840087</v>
+        <v>-0.008741394455680174</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.007086974192237333</v>
+        <v>-0.014173948384474666</v>
       </c>
       <c r="F23" t="n">
-        <v>0.007004257004257025</v>
+        <v>0.01400851400851405</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006751112014269894</v>
+        <v>0.013502224028539789</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.004600451291627755</v>
+        <v>-0.00920090258325551</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0026812526812526744</v>
+        <v>0.005362505362505349</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001966722361459207</v>
+        <v>-0.003933444722918414</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006478089811423143</v>
+        <v>0.012956179622846287</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0051517683096630185</v>
+        <v>-0.010303536619326037</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00849077822762035</v>
+        <v>-0.0169815564552407</v>
       </c>
       <c r="H24" t="n">
-        <v>0.011213039721811653</v>
+        <v>0.022426079443623306</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.285610733886727E-4</v>
+        <v>-0.0014571221467773454</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005684255684255679</v>
+        <v>0.011368511368511358</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0028296694963361735</v>
+        <v>0.005659338992672347</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0013227513227513157</v>
+        <v>-0.0026455026455026315</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01709384090336471</v>
+        <v>-0.03418768180672942</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004907809595309606</v>
+        <v>0.009815619190619213</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.007066276803118887</v>
+        <v>-0.014132553606237774</v>
       </c>
       <c r="D26" t="n">
-        <v>0.011966047680333394</v>
+        <v>0.02393209536066679</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001820256722217528</v>
+        <v>0.003640513444435056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0021045918367346844</v>
+        <v>0.004209183673469369</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.003024239135350243</v>
+        <v>-0.006048478270700486</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.002334267040149385</v>
+        <v>-0.00466853408029877</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.010673050146734364</v>
+        <v>-0.02134610029346873</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0030864197530864196</v>
+        <v>-0.006172839506172839</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004688361831218978</v>
+        <v>0.009376723662437955</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.004111254111254112</v>
+        <v>-0.008222508222508224</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0079704246370913</v>
+        <v>-0.0159408492741826</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.010439010439010458</v>
+        <v>-0.020878020878020917</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.009293902746283687</v>
+        <v>-0.018587805492567375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004594456207359432</v>
+        <v>0.009188912414718864</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007368479590701797</v>
+        <v>0.014736959181403594</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0025179516250944806</v>
+        <v>-0.005035903250188961</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0020725135932509395</v>
+        <v>0.004145027186501879</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.005991285403050106</v>
+        <v>-0.011982570806100212</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.002262600946811459</v>
+        <v>-0.004525201893622918</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007991507991507989</v>
+        <v>0.015983015983015977</v>
       </c>
       <c r="E29" t="n">
-        <v>0.007096382096382088</v>
+        <v>0.014192764192764176</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.013981031008894786</v>
+        <v>-0.02796206201778957</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0044227901370758466</v>
+        <v>-0.008845580274151693</v>
       </c>
       <c r="H29" t="n">
-        <v>0.004969254969254974</v>
+        <v>0.009938509938509948</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007552195052195079</v>
+        <v>0.015104390104390159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0032729157729157604</v>
+        <v>0.006545831545831521</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.196672863339539E-4</v>
+        <v>-0.0012393345726679078</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0034409409409409397</v>
+        <v>-0.0068818818818818794</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.014980158730158732</v>
+        <v>-0.029960317460317465</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0016548503390608482</v>
+        <v>-0.0033097006781216964</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>-0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0</v>
+        <v>-0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>15.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02946080478975216</v>
+        <v>0.05892160957950432</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>16.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02777777777777775</v>
+        <v>-0.0555555555555555</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
